--- a/main/DB/WordList.xlsx
+++ b/main/DB/WordList.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\coding\Eng_dic\main\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4671E466-2FD5-488C-BC39-43838F7C8FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B5302-E852-4654-BC5A-10FC3E065EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wordsheet" sheetId="1" r:id="rId1"/>
+    <sheet name="wordsheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="899">
   <si>
     <t>Eng</t>
   </si>
@@ -1868,6 +1869,1138 @@
   </si>
   <si>
     <t>포장하다, 싸다, 두르다</t>
+  </si>
+  <si>
+    <t>Eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>figure out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 알아내다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lay out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펼치다, 늘어놓다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reapply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재신청하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send off to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~로 보내다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zealous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열심인, 열광적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devoted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헌신적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthusiastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열렬한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능가하다, ~보다 낫다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외하다, 배제하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격하다, 통과하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유창하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격, 자격증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유능한, 재능이 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인내력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유창함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improperly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적절하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inexperience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무경험, 미숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신임장, 자격 증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firsthand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replenish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 채우다, 보충하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplicity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다재다능한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능숙한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commensurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례한, 액수가 상응하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eagerness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가, 인상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유념하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preeminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우수한, 탁월한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preliminary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예비의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prerequisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probationer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수습 직원, 견습생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sternly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄격하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by all means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반드시, 무슨 일이 있어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견디다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 부여, 위임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 관하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consideration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려, 숙고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선언, 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depiction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘사, 서술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disobedient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반항하는, 거역하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견디다, 참다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무시하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illegal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불법의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indecisive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결말이 안 난, 우유부단한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복종하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀중한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원리, 원칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punishment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형벌, 벌칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규제하다, 조절하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restriction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한, 한정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억누르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴장하여, 딱딱하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비난하다, 고소하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attorney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변호사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distrust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명히 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testimony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accordance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일치, 조화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crucial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effortlessly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘들지 않게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judicial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사법의, 재판의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keenly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카롭게, 예민하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관찰력 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법령, 명령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reprimand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비난하다, 질책하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결의, 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뻣뻣한, 경직된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substantiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입증하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trespass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침입하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위반하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무가 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 제한하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impeccable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결점 없는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정서, 탄원서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼란스러운, 당황한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감일, 마감 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심부름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제출하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문질러 씻다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적응하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clerical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무원의, 서기의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정적인, 단호한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝이 없는, 영원히 계속하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고의로, 일부러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지각하다, 인지하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분투하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번역하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식을 진행하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부류 중인, 통화 대기 중인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흩뿌리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간추리다, 요약하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popductively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산적으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sincerity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성실, 정직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용, 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태만, 불이행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임박한, 절박한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지자, 옹호자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proprietor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subordinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부하 직원, 하급자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticipation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상, 기대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격식을 차리지 않는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 이용하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변명, 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popularly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routinely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상적으로, 정기적으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~으로 가득 차다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prioritize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선적으로 처리하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규모, 크기, 차원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지시하는, 지배적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discerning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통찰력이 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elegantly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우아하게, 고상하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invaluable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 유용한, 귀중한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나아가게 하다, 몰아가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨달음, 자각, 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trivial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사소한, 하찮은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(장소의) 분위기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포부, 열망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훌륭한, 칭찬할 만한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저명한, 탁월한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endeavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노력하다, 애쓰다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2261,19 +3394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C307"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304:C306"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2284,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2295,7 +3428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2306,7 +3439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2317,7 +3450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +3461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2339,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +3483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2361,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2372,7 +3505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2383,7 +3516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2394,7 +3527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2405,7 +3538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2416,7 +3549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2427,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2438,7 +3571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2449,7 +3582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2460,7 +3593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2471,7 +3604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2482,7 +3615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2493,7 +3626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2504,7 +3637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2515,7 +3648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2526,7 +3659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2537,7 +3670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2548,7 +3681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2559,7 +3692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2570,7 +3703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2581,7 +3714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2592,7 +3725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2603,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2614,7 +3747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2625,7 +3758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2636,7 +3769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2647,7 +3780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2658,7 +3791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2669,7 +3802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2680,7 +3813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2691,7 +3824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2702,7 +3835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2713,7 +3846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2724,7 +3857,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2735,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -2746,7 +3879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2757,7 +3890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2768,7 +3901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2779,7 +3912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2790,7 +3923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2801,7 +3934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -2812,7 +3945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -2823,7 +3956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -2834,7 +3967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -2845,7 +3978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2856,7 +3989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -2867,7 +4000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -2878,7 +4011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -2889,7 +4022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -2900,7 +4033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -2911,7 +4044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -2922,7 +4055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2933,7 +4066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -2944,7 +4077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -2955,7 +4088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -2966,7 +4099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -2977,7 +4110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -2988,7 +4121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -2999,7 +4132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -3010,7 +4143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -3021,7 +4154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3032,7 +4165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -3043,7 +4176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -3054,7 +4187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -3065,7 +4198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -3076,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -3087,7 +4220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -3098,7 +4231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -3109,7 +4242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -3120,7 +4253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>162</v>
       </c>
@@ -3131,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -3142,7 +4275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -3153,7 +4286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -3164,7 +4297,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -3175,7 +4308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -3186,7 +4319,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -3197,7 +4330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -3208,7 +4341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -3219,7 +4352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -3230,7 +4363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -3241,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -3252,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -3263,7 +4396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -3274,7 +4407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -3285,7 +4418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -3296,7 +4429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -3307,7 +4440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -3318,7 +4451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -3329,7 +4462,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -3340,7 +4473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -3351,7 +4484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -3362,7 +4495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -3373,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -3384,7 +4517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -3395,7 +4528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -3406,7 +4539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -3417,7 +4550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>217</v>
       </c>
@@ -3428,7 +4561,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>220</v>
       </c>
@@ -3439,7 +4572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>222</v>
       </c>
@@ -3450,7 +4583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>224</v>
       </c>
@@ -3461,7 +4594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>226</v>
       </c>
@@ -3472,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>228</v>
       </c>
@@ -3483,7 +4616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>230</v>
       </c>
@@ -3494,7 +4627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>232</v>
       </c>
@@ -3505,7 +4638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>234</v>
       </c>
@@ -3516,7 +4649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>236</v>
       </c>
@@ -3527,7 +4660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -3538,7 +4671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>240</v>
       </c>
@@ -3549,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -3560,7 +4693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>244</v>
       </c>
@@ -3571,7 +4704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>246</v>
       </c>
@@ -3582,7 +4715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>248</v>
       </c>
@@ -3593,7 +4726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>250</v>
       </c>
@@ -3604,7 +4737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -3615,7 +4748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>254</v>
       </c>
@@ -3626,7 +4759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>256</v>
       </c>
@@ -3637,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>258</v>
       </c>
@@ -3648,7 +4781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>260</v>
       </c>
@@ -3659,7 +4792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>262</v>
       </c>
@@ -3670,7 +4803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>264</v>
       </c>
@@ -3681,7 +4814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>266</v>
       </c>
@@ -3692,7 +4825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>268</v>
       </c>
@@ -3703,7 +4836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>270</v>
       </c>
@@ -3714,7 +4847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>272</v>
       </c>
@@ -3725,7 +4858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>274</v>
       </c>
@@ -3736,7 +4869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>276</v>
       </c>
@@ -3747,7 +4880,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -3758,7 +4891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -3769,7 +4902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>282</v>
       </c>
@@ -3780,7 +4913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>284</v>
       </c>
@@ -3791,7 +4924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>286</v>
       </c>
@@ -3802,7 +4935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>288</v>
       </c>
@@ -3813,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>290</v>
       </c>
@@ -3824,7 +4957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>292</v>
       </c>
@@ -3835,7 +4968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>294</v>
       </c>
@@ -3846,7 +4979,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>296</v>
       </c>
@@ -3857,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>298</v>
       </c>
@@ -3868,7 +5001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>300</v>
       </c>
@@ -3879,7 +5012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>302</v>
       </c>
@@ -3890,7 +5023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>304</v>
       </c>
@@ -3901,7 +5034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>306</v>
       </c>
@@ -3912,7 +5045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>308</v>
       </c>
@@ -3923,7 +5056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>310</v>
       </c>
@@ -3934,7 +5067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>312</v>
       </c>
@@ -3945,7 +5078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>314</v>
       </c>
@@ -3956,7 +5089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>316</v>
       </c>
@@ -3967,7 +5100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>318</v>
       </c>
@@ -3978,7 +5111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>320</v>
       </c>
@@ -3989,7 +5122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>322</v>
       </c>
@@ -4000,7 +5133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>324</v>
       </c>
@@ -4011,7 +5144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>326</v>
       </c>
@@ -4022,7 +5155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -4033,7 +5166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>330</v>
       </c>
@@ -4044,7 +5177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -4055,7 +5188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -4066,7 +5199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>336</v>
       </c>
@@ -4077,7 +5210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>338</v>
       </c>
@@ -4088,7 +5221,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>340</v>
       </c>
@@ -4099,7 +5232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>342</v>
       </c>
@@ -4110,7 +5243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>344</v>
       </c>
@@ -4121,7 +5254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>346</v>
       </c>
@@ -4132,7 +5265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>348</v>
       </c>
@@ -4143,7 +5276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>350</v>
       </c>
@@ -4154,7 +5287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>352</v>
       </c>
@@ -4165,7 +5298,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -4176,7 +5309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>356</v>
       </c>
@@ -4187,7 +5320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>358</v>
       </c>
@@ -4198,7 +5331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>360</v>
       </c>
@@ -4209,7 +5342,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>362</v>
       </c>
@@ -4220,7 +5353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>364</v>
       </c>
@@ -4231,7 +5364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>366</v>
       </c>
@@ -4242,7 +5375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -4253,7 +5386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>370</v>
       </c>
@@ -4264,7 +5397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>372</v>
       </c>
@@ -4275,7 +5408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>374</v>
       </c>
@@ -4286,7 +5419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>376</v>
       </c>
@@ -4297,7 +5430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>378</v>
       </c>
@@ -4308,7 +5441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>380</v>
       </c>
@@ -4319,7 +5452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>382</v>
       </c>
@@ -4330,7 +5463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>384</v>
       </c>
@@ -4341,7 +5474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>386</v>
       </c>
@@ -4352,7 +5485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>388</v>
       </c>
@@ -4363,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>390</v>
       </c>
@@ -4374,7 +5507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>392</v>
       </c>
@@ -4385,7 +5518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>394</v>
       </c>
@@ -4396,7 +5529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>396</v>
       </c>
@@ -4407,7 +5540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>398</v>
       </c>
@@ -4418,7 +5551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>400</v>
       </c>
@@ -4429,7 +5562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>402</v>
       </c>
@@ -4440,7 +5573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>404</v>
       </c>
@@ -4451,7 +5584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>406</v>
       </c>
@@ -4462,7 +5595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>408</v>
       </c>
@@ -4473,7 +5606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>410</v>
       </c>
@@ -4484,7 +5617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>412</v>
       </c>
@@ -4495,7 +5628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>414</v>
       </c>
@@ -4506,7 +5639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>416</v>
       </c>
@@ -4517,7 +5650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>418</v>
       </c>
@@ -4528,7 +5661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>420</v>
       </c>
@@ -4539,7 +5672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>422</v>
       </c>
@@ -4550,7 +5683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>424</v>
       </c>
@@ -4561,7 +5694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>426</v>
       </c>
@@ -4572,7 +5705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>428</v>
       </c>
@@ -4583,7 +5716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>430</v>
       </c>
@@ -4594,7 +5727,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>432</v>
       </c>
@@ -4605,7 +5738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>434</v>
       </c>
@@ -4616,7 +5749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>436</v>
       </c>
@@ -4627,7 +5760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>438</v>
       </c>
@@ -4638,7 +5771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>440</v>
       </c>
@@ -4649,7 +5782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>442</v>
       </c>
@@ -4660,7 +5793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>444</v>
       </c>
@@ -4671,7 +5804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>446</v>
       </c>
@@ -4682,7 +5815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>448</v>
       </c>
@@ -4693,7 +5826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>450</v>
       </c>
@@ -4704,7 +5837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>452</v>
       </c>
@@ -4715,7 +5848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>454</v>
       </c>
@@ -4726,7 +5859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>456</v>
       </c>
@@ -4737,7 +5870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>458</v>
       </c>
@@ -4748,7 +5881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>460</v>
       </c>
@@ -4759,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>462</v>
       </c>
@@ -4770,7 +5903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>464</v>
       </c>
@@ -4781,7 +5914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>466</v>
       </c>
@@ -4792,7 +5925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>468</v>
       </c>
@@ -4803,7 +5936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>470</v>
       </c>
@@ -4814,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>472</v>
       </c>
@@ -4825,7 +5958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>474</v>
       </c>
@@ -4836,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>476</v>
       </c>
@@ -4847,7 +5980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>478</v>
       </c>
@@ -4858,7 +5991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>480</v>
       </c>
@@ -4869,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>482</v>
       </c>
@@ -4880,7 +6013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>484</v>
       </c>
@@ -4891,7 +6024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>486</v>
       </c>
@@ -4902,7 +6035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>488</v>
       </c>
@@ -4913,7 +6046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>490</v>
       </c>
@@ -4924,7 +6057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>492</v>
       </c>
@@ -4935,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>494</v>
       </c>
@@ -4946,7 +6079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>496</v>
       </c>
@@ -4957,7 +6090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>498</v>
       </c>
@@ -4968,7 +6101,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>500</v>
       </c>
@@ -4979,7 +6112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>502</v>
       </c>
@@ -4990,7 +6123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>504</v>
       </c>
@@ -5001,7 +6134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>506</v>
       </c>
@@ -5012,7 +6145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>508</v>
       </c>
@@ -5023,7 +6156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>510</v>
       </c>
@@ -5034,7 +6167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>512</v>
       </c>
@@ -5045,7 +6178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>514</v>
       </c>
@@ -5056,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>516</v>
       </c>
@@ -5067,7 +6200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>518</v>
       </c>
@@ -5078,7 +6211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>520</v>
       </c>
@@ -5089,7 +6222,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>522</v>
       </c>
@@ -5100,7 +6233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>524</v>
       </c>
@@ -5111,7 +6244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>526</v>
       </c>
@@ -5122,7 +6255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>528</v>
       </c>
@@ -5133,7 +6266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>530</v>
       </c>
@@ -5144,7 +6277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>532</v>
       </c>
@@ -5155,7 +6288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>534</v>
       </c>
@@ -5166,7 +6299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>536</v>
       </c>
@@ -5177,7 +6310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>538</v>
       </c>
@@ -5188,7 +6321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>540</v>
       </c>
@@ -5199,7 +6332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>542</v>
       </c>
@@ -5210,7 +6343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>544</v>
       </c>
@@ -5221,7 +6354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>546</v>
       </c>
@@ -5232,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>548</v>
       </c>
@@ -5243,7 +6376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>550</v>
       </c>
@@ -5254,7 +6387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>552</v>
       </c>
@@ -5265,7 +6398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>554</v>
       </c>
@@ -5276,7 +6409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>556</v>
       </c>
@@ -5287,7 +6420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>558</v>
       </c>
@@ -5298,7 +6431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>560</v>
       </c>
@@ -5309,7 +6442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>562</v>
       </c>
@@ -5320,7 +6453,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>564</v>
       </c>
@@ -5331,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>566</v>
       </c>
@@ -5342,7 +6475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>568</v>
       </c>
@@ -5353,7 +6486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>570</v>
       </c>
@@ -5364,7 +6497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>572</v>
       </c>
@@ -5375,7 +6508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>574</v>
       </c>
@@ -5386,7 +6519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>576</v>
       </c>
@@ -5397,7 +6530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>578</v>
       </c>
@@ -5408,7 +6541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>580</v>
       </c>
@@ -5419,7 +6552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>582</v>
       </c>
@@ -5430,7 +6563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>584</v>
       </c>
@@ -5441,7 +6574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>586</v>
       </c>
@@ -5452,7 +6585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>588</v>
       </c>
@@ -5463,7 +6596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>590</v>
       </c>
@@ -5474,7 +6607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>592</v>
       </c>
@@ -5485,7 +6618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>594</v>
       </c>
@@ -5496,7 +6629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>596</v>
       </c>
@@ -5507,7 +6640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>598</v>
       </c>
@@ -5518,7 +6651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>600</v>
       </c>
@@ -5529,7 +6662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>602</v>
       </c>
@@ -5540,7 +6673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>604</v>
       </c>
@@ -5551,7 +6684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>606</v>
       </c>
@@ -5562,7 +6695,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>608</v>
       </c>
@@ -5573,7 +6706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>610</v>
       </c>
@@ -5584,7 +6717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>612</v>
       </c>
@@ -5595,7 +6728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>614</v>
       </c>
@@ -5606,24 +6739,1561 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304"/>
       <c r="B304"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305"/>
       <c r="B305"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306"/>
       <c r="B306"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A307"/>
-      <c r="B307"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238FA2E5-6210-4842-A9FE-20D8D251CCDA}">
+  <dimension ref="A1:C138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="O146" sqref="O146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5" t="s">
+        <v>812</v>
+      </c>
+      <c r="C5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>889</v>
+      </c>
+      <c r="B10" t="s">
+        <v>890</v>
+      </c>
+      <c r="C10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>855</v>
+      </c>
+      <c r="B11" t="s">
+        <v>856</v>
+      </c>
+      <c r="C11" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>891</v>
+      </c>
+      <c r="B12" t="s">
+        <v>892</v>
+      </c>
+      <c r="C12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>753</v>
+      </c>
+      <c r="B13" t="s">
+        <v>754</v>
+      </c>
+      <c r="C13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>706</v>
+      </c>
+      <c r="B14" t="s">
+        <v>707</v>
+      </c>
+      <c r="C14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>708</v>
+      </c>
+      <c r="B16" t="s">
+        <v>709</v>
+      </c>
+      <c r="C16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>857</v>
+      </c>
+      <c r="B17" t="s">
+        <v>858</v>
+      </c>
+      <c r="C17" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>793</v>
+      </c>
+      <c r="B18" t="s">
+        <v>794</v>
+      </c>
+      <c r="C18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" t="s">
+        <v>697</v>
+      </c>
+      <c r="C19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>859</v>
+      </c>
+      <c r="B20" t="s">
+        <v>860</v>
+      </c>
+      <c r="C20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>795</v>
+      </c>
+      <c r="B21" t="s">
+        <v>796</v>
+      </c>
+      <c r="C21" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>817</v>
+      </c>
+      <c r="B22" t="s">
+        <v>818</v>
+      </c>
+      <c r="C22" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>678</v>
+      </c>
+      <c r="B23" t="s">
+        <v>679</v>
+      </c>
+      <c r="C23" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>761</v>
+      </c>
+      <c r="B24" t="s">
+        <v>762</v>
+      </c>
+      <c r="C24" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>767</v>
+      </c>
+      <c r="B25" t="s">
+        <v>768</v>
+      </c>
+      <c r="C25" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>710</v>
+      </c>
+      <c r="B26" t="s">
+        <v>711</v>
+      </c>
+      <c r="C26" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>819</v>
+      </c>
+      <c r="B27" t="s">
+        <v>820</v>
+      </c>
+      <c r="C27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>837</v>
+      </c>
+      <c r="B28" t="s">
+        <v>838</v>
+      </c>
+      <c r="C28" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>801</v>
+      </c>
+      <c r="B29" t="s">
+        <v>802</v>
+      </c>
+      <c r="C29" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>713</v>
+      </c>
+      <c r="B30" t="s">
+        <v>714</v>
+      </c>
+      <c r="C30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>666</v>
+      </c>
+      <c r="B31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C31" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>893</v>
+      </c>
+      <c r="B32" t="s">
+        <v>894</v>
+      </c>
+      <c r="C32" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" t="s">
+        <v>770</v>
+      </c>
+      <c r="C33" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>803</v>
+      </c>
+      <c r="B34" t="s">
+        <v>804</v>
+      </c>
+      <c r="C34" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>715</v>
+      </c>
+      <c r="B35" t="s">
+        <v>716</v>
+      </c>
+      <c r="C35" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>845</v>
+      </c>
+      <c r="B36" t="s">
+        <v>846</v>
+      </c>
+      <c r="C36" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>717</v>
+      </c>
+      <c r="B37" t="s">
+        <v>718</v>
+      </c>
+      <c r="C37" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>719</v>
+      </c>
+      <c r="B38" t="s">
+        <v>720</v>
+      </c>
+      <c r="C38" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>632</v>
+      </c>
+      <c r="B39" t="s">
+        <v>633</v>
+      </c>
+      <c r="C39" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>873</v>
+      </c>
+      <c r="B40" t="s">
+        <v>874</v>
+      </c>
+      <c r="C40" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>875</v>
+      </c>
+      <c r="B41" t="s">
+        <v>876</v>
+      </c>
+      <c r="C41" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>877</v>
+      </c>
+      <c r="B42" t="s">
+        <v>878</v>
+      </c>
+      <c r="C42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>721</v>
+      </c>
+      <c r="B43" t="s">
+        <v>722</v>
+      </c>
+      <c r="C43" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>757</v>
+      </c>
+      <c r="B44" t="s">
+        <v>758</v>
+      </c>
+      <c r="C44" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>861</v>
+      </c>
+      <c r="B45" t="s">
+        <v>862</v>
+      </c>
+      <c r="C45" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>680</v>
+      </c>
+      <c r="B46" t="s">
+        <v>681</v>
+      </c>
+      <c r="C46" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>771</v>
+      </c>
+      <c r="B47" t="s">
+        <v>772</v>
+      </c>
+      <c r="C47" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>879</v>
+      </c>
+      <c r="B48" t="s">
+        <v>880</v>
+      </c>
+      <c r="C48" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>895</v>
+      </c>
+      <c r="B49" t="s">
+        <v>896</v>
+      </c>
+      <c r="C49" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>897</v>
+      </c>
+      <c r="B50" t="s">
+        <v>898</v>
+      </c>
+      <c r="C50" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>821</v>
+      </c>
+      <c r="B51" t="s">
+        <v>822</v>
+      </c>
+      <c r="C51" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>656</v>
+      </c>
+      <c r="B52" t="s">
+        <v>657</v>
+      </c>
+      <c r="C52" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>723</v>
+      </c>
+      <c r="B53" t="s">
+        <v>724</v>
+      </c>
+      <c r="C53" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>634</v>
+      </c>
+      <c r="B54" t="s">
+        <v>635</v>
+      </c>
+      <c r="C54" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>636</v>
+      </c>
+      <c r="B55" t="s">
+        <v>637</v>
+      </c>
+      <c r="C55" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>805</v>
+      </c>
+      <c r="B56" t="s">
+        <v>806</v>
+      </c>
+      <c r="C56" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>638</v>
+      </c>
+      <c r="B57" t="s">
+        <v>639</v>
+      </c>
+      <c r="C57" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>640</v>
+      </c>
+      <c r="B58" t="s">
+        <v>641</v>
+      </c>
+      <c r="C58" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>863</v>
+      </c>
+      <c r="B59" t="s">
+        <v>864</v>
+      </c>
+      <c r="C59" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>658</v>
+      </c>
+      <c r="B60" t="s">
+        <v>659</v>
+      </c>
+      <c r="C60" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>619</v>
+      </c>
+      <c r="B61" t="s">
+        <v>620</v>
+      </c>
+      <c r="C61" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>869</v>
+      </c>
+      <c r="B62" t="s">
+        <v>870</v>
+      </c>
+      <c r="C62" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>668</v>
+      </c>
+      <c r="B63" t="s">
+        <v>669</v>
+      </c>
+      <c r="C63" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>660</v>
+      </c>
+      <c r="B64" t="s">
+        <v>661</v>
+      </c>
+      <c r="C64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>645</v>
+      </c>
+      <c r="C65" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>642</v>
+      </c>
+      <c r="B66" t="s">
+        <v>643</v>
+      </c>
+      <c r="C66" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>807</v>
+      </c>
+      <c r="B67" t="s">
+        <v>808</v>
+      </c>
+      <c r="C67" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>698</v>
+      </c>
+      <c r="B68" t="s">
+        <v>699</v>
+      </c>
+      <c r="C68" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>725</v>
+      </c>
+      <c r="B69" t="s">
+        <v>726</v>
+      </c>
+      <c r="C69" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>727</v>
+      </c>
+      <c r="B70" t="s">
+        <v>728</v>
+      </c>
+      <c r="C70" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>797</v>
+      </c>
+      <c r="B71" t="s">
+        <v>798</v>
+      </c>
+      <c r="C71" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>847</v>
+      </c>
+      <c r="B72" t="s">
+        <v>848</v>
+      </c>
+      <c r="C72" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>662</v>
+      </c>
+      <c r="B73" t="s">
+        <v>663</v>
+      </c>
+      <c r="C73" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>682</v>
+      </c>
+      <c r="B74" t="s">
+        <v>683</v>
+      </c>
+      <c r="C74" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>729</v>
+      </c>
+      <c r="B75" t="s">
+        <v>730</v>
+      </c>
+      <c r="C75" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>664</v>
+      </c>
+      <c r="B76" t="s">
+        <v>665</v>
+      </c>
+      <c r="C76" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>881</v>
+      </c>
+      <c r="B77" t="s">
+        <v>882</v>
+      </c>
+      <c r="C77" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>773</v>
+      </c>
+      <c r="B78" t="s">
+        <v>774</v>
+      </c>
+      <c r="C78" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>775</v>
+      </c>
+      <c r="B79" t="s">
+        <v>776</v>
+      </c>
+      <c r="C79" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>622</v>
+      </c>
+      <c r="B80" t="s">
+        <v>623</v>
+      </c>
+      <c r="C80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>759</v>
+      </c>
+      <c r="B81" t="s">
+        <v>760</v>
+      </c>
+      <c r="C81" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>684</v>
+      </c>
+      <c r="B82" t="s">
+        <v>685</v>
+      </c>
+      <c r="C82" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>647</v>
+      </c>
+      <c r="B83" t="s">
+        <v>648</v>
+      </c>
+      <c r="C83" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>731</v>
+      </c>
+      <c r="B84" t="s">
+        <v>732</v>
+      </c>
+      <c r="C84" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>733</v>
+      </c>
+      <c r="B85" t="s">
+        <v>734</v>
+      </c>
+      <c r="C85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>777</v>
+      </c>
+      <c r="B86" t="s">
+        <v>778</v>
+      </c>
+      <c r="C86" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>831</v>
+      </c>
+      <c r="B87" t="s">
+        <v>832</v>
+      </c>
+      <c r="C87" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>833</v>
+      </c>
+      <c r="B88" t="s">
+        <v>834</v>
+      </c>
+      <c r="C88" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>823</v>
+      </c>
+      <c r="B89" t="s">
+        <v>824</v>
+      </c>
+      <c r="C89" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>779</v>
+      </c>
+      <c r="B90" t="s">
+        <v>780</v>
+      </c>
+      <c r="C90" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>735</v>
+      </c>
+      <c r="B91" t="s">
+        <v>736</v>
+      </c>
+      <c r="C91" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>825</v>
+      </c>
+      <c r="B92" t="s">
+        <v>826</v>
+      </c>
+      <c r="C92" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>799</v>
+      </c>
+      <c r="B93" t="s">
+        <v>800</v>
+      </c>
+      <c r="C93" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>839</v>
+      </c>
+      <c r="B94" t="s">
+        <v>840</v>
+      </c>
+      <c r="C94" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>865</v>
+      </c>
+      <c r="B95" t="s">
+        <v>866</v>
+      </c>
+      <c r="C95" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>737</v>
+      </c>
+      <c r="B96" t="s">
+        <v>738</v>
+      </c>
+      <c r="C96" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>686</v>
+      </c>
+      <c r="B97" t="s">
+        <v>687</v>
+      </c>
+      <c r="C97" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>688</v>
+      </c>
+      <c r="B98" t="s">
+        <v>689</v>
+      </c>
+      <c r="C98" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>690</v>
+      </c>
+      <c r="B99" t="s">
+        <v>691</v>
+      </c>
+      <c r="C99" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>739</v>
+      </c>
+      <c r="B100" t="s">
+        <v>740</v>
+      </c>
+      <c r="C100" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>871</v>
+      </c>
+      <c r="B101" t="s">
+        <v>872</v>
+      </c>
+      <c r="C101" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>692</v>
+      </c>
+      <c r="B102" t="s">
+        <v>693</v>
+      </c>
+      <c r="C102" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>883</v>
+      </c>
+      <c r="B103" t="s">
+        <v>884</v>
+      </c>
+      <c r="C103" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>849</v>
+      </c>
+      <c r="B104" t="s">
+        <v>850</v>
+      </c>
+      <c r="C104" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>851</v>
+      </c>
+      <c r="B105" t="s">
+        <v>852</v>
+      </c>
+      <c r="C105" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>741</v>
+      </c>
+      <c r="B106" t="s">
+        <v>742</v>
+      </c>
+      <c r="C106" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>650</v>
+      </c>
+      <c r="B107" t="s">
+        <v>651</v>
+      </c>
+      <c r="C107" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>885</v>
+      </c>
+      <c r="B108" t="s">
+        <v>886</v>
+      </c>
+      <c r="C108" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>624</v>
+      </c>
+      <c r="B109" t="s">
+        <v>625</v>
+      </c>
+      <c r="C109" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>743</v>
+      </c>
+      <c r="B110" t="s">
+        <v>744</v>
+      </c>
+      <c r="C110" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>652</v>
+      </c>
+      <c r="B111" t="s">
+        <v>653</v>
+      </c>
+      <c r="C111" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>670</v>
+      </c>
+      <c r="B112" t="s">
+        <v>671</v>
+      </c>
+      <c r="C112" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>781</v>
+      </c>
+      <c r="B113" t="s">
+        <v>782</v>
+      </c>
+      <c r="C113" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>783</v>
+      </c>
+      <c r="B114" t="s">
+        <v>784</v>
+      </c>
+      <c r="C114" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>745</v>
+      </c>
+      <c r="B115" t="s">
+        <v>746</v>
+      </c>
+      <c r="C115" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>867</v>
+      </c>
+      <c r="B116" t="s">
+        <v>868</v>
+      </c>
+      <c r="C116" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>809</v>
+      </c>
+      <c r="B117" t="s">
+        <v>810</v>
+      </c>
+      <c r="C117" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>627</v>
+      </c>
+      <c r="B118" t="s">
+        <v>628</v>
+      </c>
+      <c r="C118" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>672</v>
+      </c>
+      <c r="B119" t="s">
+        <v>673</v>
+      </c>
+      <c r="C119" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>841</v>
+      </c>
+      <c r="B120" t="s">
+        <v>842</v>
+      </c>
+      <c r="C120" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>694</v>
+      </c>
+      <c r="B121" t="s">
+        <v>695</v>
+      </c>
+      <c r="C121" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>785</v>
+      </c>
+      <c r="B122" t="s">
+        <v>786</v>
+      </c>
+      <c r="C122" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>835</v>
+      </c>
+      <c r="B123" t="s">
+        <v>836</v>
+      </c>
+      <c r="C123" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>827</v>
+      </c>
+      <c r="B124" t="s">
+        <v>828</v>
+      </c>
+      <c r="C124" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>853</v>
+      </c>
+      <c r="B125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C125" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>787</v>
+      </c>
+      <c r="B126" t="s">
+        <v>788</v>
+      </c>
+      <c r="C126" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>747</v>
+      </c>
+      <c r="B127" t="s">
+        <v>748</v>
+      </c>
+      <c r="C127" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>700</v>
+      </c>
+      <c r="B128" t="s">
+        <v>701</v>
+      </c>
+      <c r="C128" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>654</v>
+      </c>
+      <c r="B129" t="s">
+        <v>655</v>
+      </c>
+      <c r="C129" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>749</v>
+      </c>
+      <c r="B130" t="s">
+        <v>750</v>
+      </c>
+      <c r="C130" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>763</v>
+      </c>
+      <c r="B131" t="s">
+        <v>764</v>
+      </c>
+      <c r="C131" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>829</v>
+      </c>
+      <c r="B132" t="s">
+        <v>830</v>
+      </c>
+      <c r="C132" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>789</v>
+      </c>
+      <c r="B133" t="s">
+        <v>790</v>
+      </c>
+      <c r="C133" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>887</v>
+      </c>
+      <c r="B134" t="s">
+        <v>888</v>
+      </c>
+      <c r="C134" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>843</v>
+      </c>
+      <c r="B135" t="s">
+        <v>844</v>
+      </c>
+      <c r="C135" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>674</v>
+      </c>
+      <c r="B136" t="s">
+        <v>675</v>
+      </c>
+      <c r="C136" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>791</v>
+      </c>
+      <c r="B137" t="s">
+        <v>792</v>
+      </c>
+      <c r="C137" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>629</v>
+      </c>
+      <c r="B138" t="s">
+        <v>630</v>
+      </c>
+      <c r="C138" t="s">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C138">
+    <sortCondition ref="A138"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/main/DB/WordList.xlsx
+++ b/main/DB/WordList.xlsx
@@ -30,7 +30,7 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -81,13 +81,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -470,7 +476,7 @@
     <col width="6.005" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Eng</t>
@@ -487,7 +493,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row r="2" ht="21" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>apply for</t>
@@ -504,7 +510,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row r="3" ht="21" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>appoint</t>
@@ -521,7 +527,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row r="4" ht="21" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>appraisal</t>
@@ -538,7 +544,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row r="5" ht="21" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>apprehensive</t>
@@ -555,7 +561,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row r="6" ht="21" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>aptitude</t>
@@ -572,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row r="7" ht="21" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>artificial</t>
@@ -589,7 +595,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1">
+    <row r="8" ht="21" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>artwork</t>
@@ -606,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1">
+    <row r="9" ht="21" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>assure</t>
@@ -623,7 +629,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row r="10" ht="21" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>atmosphere</t>
@@ -640,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row r="11" ht="21" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>attribute</t>
@@ -657,7 +663,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row r="12" ht="21" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>audience</t>
@@ -674,7 +680,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row r="13" ht="21" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>available</t>
@@ -691,7 +697,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row r="14" ht="21" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>awkward</t>
@@ -708,7 +714,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row r="15" ht="21" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>axquisition</t>
@@ -725,7 +731,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row r="16" ht="21" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>baked goods</t>
@@ -742,7 +748,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row r="17" ht="21" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>be seated</t>
@@ -5673,7 +5679,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5681,9 +5687,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="24.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="10.71928571428571" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.43357142857143" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="24.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="10.71928571428571" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -7572,6 +7578,11 @@
           <t>n</t>
         </is>
       </c>
+    </row>
+    <row r="112" ht="18.75" customHeight="1">
+      <c r="A112" s="5" t="inlineStr"/>
+      <c r="B112" s="5" t="inlineStr"/>
+      <c r="C112" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/DB/WordList.xlsx
+++ b/main/DB/WordList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="wordsheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,16 +12,16 @@
     <sheet name="wordsheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -29,6 +29,20 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -43,7 +57,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,16 +71,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -81,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -92,15 +106,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -179,10 +190,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -220,71 +231,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -312,7 +323,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -335,11 +346,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -348,13 +359,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -364,7 +375,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -373,7 +384,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -382,7 +393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -390,10 +401,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -463,17 +474,17 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="14.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="31.86214285714286" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="6.005" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="14" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="31.8984375" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="6" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -496,250 +507,250 @@
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>apply for</t>
+          <t>appoint</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>~에 지원하다</t>
+          <t>임명하다</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>phr</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>appoint</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>임명하다</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>apprehensive</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>걱정하는, 염려하는</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>apprehensive</t>
+          <t>aptitude</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>걱정하는, 염려하는</t>
+          <t>재능, 소질</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>aptitude</t>
+          <t>artificial</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>재능, 소질</t>
+          <t>인위적인, 인공적인</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>artificial</t>
+          <t>artwork</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>인위적인, 인공적인</t>
+          <t>예술 작품</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>artwork</t>
+          <t>assure</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>예술 작품</t>
+          <t>~에게 보장하다, 장담하다</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>assure</t>
+          <t>atmosphere</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>~에게 보장하다, 장담하다</t>
+          <t>분위기, 환경</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>atmosphere</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>분위기, 환경</t>
+          <t>(원인을)~의 덕분에 돌리다</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="11" ht="21" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>audience</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>(원인을)~의 덕분에 돌리다</t>
+          <t>시청자, 청중, 관객</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>audience</t>
+          <t>available</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>시청자, 청중, 관객</t>
+          <t>이용 가능한</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>axquisition</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>이용 가능한</t>
+          <t>인수; 구입한 것</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>awkward</t>
+          <t>baked goods</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>어색한, 서투른</t>
+          <t>제빵류</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>phr</t>
         </is>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>axquisition</t>
+          <t>be seated</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>인수; 구입한 것</t>
+          <t>앉다</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>phr</t>
         </is>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>baked goods</t>
+          <t>belong to</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>제빵류</t>
+          <t>~에 속하다, ~의 소유이다</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -751,182 +762,182 @@
     <row r="17" ht="21" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>be seated</t>
+          <t>beverage</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>앉다</t>
+          <t>음료</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>phr</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>belong to</t>
+          <t>blend</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>~에 속하다, ~의 소유이다</t>
+          <t>섞다, 혼합하다</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>phr</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>benefit</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>혜택, 이익</t>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>모여들다, 무리를 이루다</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>beverage</t>
+          <t>collaborate</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>음료</t>
+          <t>협력하다, 공동으로 일하다</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>blend</t>
+          <t>comforting</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>섞다, 혼합하다</t>
+          <t>위로가 되는</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>cluster</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>모여들다, 무리를 이루다</t>
+          <t>상업의, 상업적인</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>collaborate</t>
+          <t>competent</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>협력하다, 공동으로 일하다</t>
+          <t>유능한, 능숙한</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>comforting</t>
+          <t>complexion</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>위로가 되는</t>
+          <t>안색, 양상</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>commercial</t>
+          <t>composite</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>상업의, 상업적인</t>
+          <t>합성물, 혼합물</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>competent</t>
+          <t>compress</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>유능한, 능숙한</t>
+          <t>압축하다, 압박하다, 요약하다</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>complexion</t>
+          <t>compromise</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>안색, 양상</t>
+          <t>타협, 화해</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -938,29 +949,29 @@
     <row r="28" ht="18" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>composite</t>
+          <t>confer</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>합성물, 혼합물</t>
+          <t>부여하다, 수여하다, 주다</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>compress</t>
+          <t>confess</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>압축하다, 압박하다, 요약하다</t>
+          <t>털어놓다, 자백하다, 고백하다</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -972,12 +983,12 @@
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>compromise</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>타협, 화해</t>
+          <t>확신, 자신</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -989,12 +1000,12 @@
     <row r="31" ht="18" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>confer</t>
+          <t>confirm</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>부여하다, 수여하다, 주다</t>
+          <t>확인하다, 확정하다</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1006,29 +1017,29 @@
     <row r="32" ht="18" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>confess</t>
+          <t>conflict</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>털어놓다, 자백하다, 고백하다</t>
+          <t>대립, 충돌, 갈등</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>conformity</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>확신, 자신</t>
+          <t>순응, 복종, 일치</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1040,12 +1051,12 @@
     <row r="34" ht="18" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>confirm</t>
+          <t>consult</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>확인하다, 확정하다</t>
+          <t>상의하다, 자문하다</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1057,12 +1068,12 @@
     <row r="35" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>conflict</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>대립, 충돌, 갈등</t>
+          <t>계약서, 계약</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1074,29 +1085,29 @@
     <row r="36" ht="17.25" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>conformity</t>
+          <t>conveniently</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>순응, 복종, 일치</t>
+          <t>편리하게</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="37" ht="17.25" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>consult</t>
+          <t>convince</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>상의하다, 자문하다</t>
+          <t>확실시키다, 설득하다, 납득시키다</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1108,165 +1119,165 @@
     <row r="38" ht="17.25" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>contract</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>계약서, 계약</t>
+          <t>충당하다, 다루다, 보장[보상]하다</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="39" ht="17.25" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>conveniently</t>
+          <t>drift</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>편리하게</t>
+          <t>서서히 움직이다, 표류하다, 이동</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>v, n</t>
         </is>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>convince</t>
+          <t>efficient</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>확실시키다, 설득하다, 납득시키다</t>
+          <t>효과적인, 능률적인</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>elegant</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>충당하다, 다루다, 보장[보상]하다</t>
+          <t>우아한</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>drift</t>
+          <t>eligible</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>서서히 움직이다, 표류하다, 이동</t>
+          <t>자격이 있는, 적격의</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>v, n</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>efficient</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>효과적인, 능률적인</t>
+          <t>비우다, 비어 있는</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v, adj</t>
         </is>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>elegant</t>
+          <t>enclose</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>우아한</t>
+          <t>~을 동봉하다, 에워싸다</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="45" ht="17.25" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>eligible</t>
+          <t>ensure</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>자격이 있는, 적격의</t>
+          <t>확실하게 하다, 보장하다</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="46" ht="17.25" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>entail</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>비우다, 비어 있는</t>
+          <t>수반하다, 유발하다</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>v, adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="47" ht="17.25" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>enclose</t>
+          <t>entitle</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>~을 동봉하다, 에워싸다</t>
+          <t>자격을 주다</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1278,29 +1289,29 @@
     <row r="48" ht="17.25" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>ensure</t>
+          <t>equipment</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>확실하게 하다, 보장하다</t>
+          <t>장비, 설비</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>entail</t>
+          <t>escape</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>수반하다, 유발하다</t>
+          <t>달아나다, 벗어나다</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1312,12 +1323,12 @@
     <row r="50" ht="17.25" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>entitle</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>자격을 주다</t>
+          <t>추정하다, 추산하다</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1329,63 +1340,63 @@
     <row r="51" ht="17.25" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>equipment</t>
+          <t>evaluate</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>장비, 설비</t>
+          <t>평가하다</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="52" ht="17.25" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>escape</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>달아나다, 벗어나다</t>
+          <t>증거, 흔적</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="53" ht="17.25" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>exactly</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>추정하다, 추산하다</t>
+          <t>정확히</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="54" ht="17.25" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>evaluate</t>
+          <t>exceed</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>평가하다</t>
+          <t>~을 초과하다</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1397,97 +1408,97 @@
     <row r="55" ht="17.25" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>excellently</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>증거, 흔적</t>
+          <t>뛰어나게</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="56" ht="17.25" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>exactly</t>
+          <t>exclusion</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>정확히</t>
+          <t>제외, 배제</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="57" ht="17.25" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>exceed</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>~을 초과하다</t>
+          <t>경영의, 관리의</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="58" ht="17.25" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>excellently</t>
+          <t>illuminate</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>뛰어나게</t>
+          <t>밝히다, 비추다, 계몽하다</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="59" ht="17.25" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>exclusion</t>
+          <t>immune</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>제외, 배제</t>
+          <t>면역의, ~의 영향을 받지 않는</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="60" ht="17.25" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>imperative</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>경영의, 관리의</t>
+          <t>반드시 해야 하는, 필수적인</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1499,46 +1510,46 @@
     <row r="61" ht="17.25" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>illuminate</t>
+          <t>implement</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>밝히다, 비추다, 계몽하다</t>
+          <t>실행하다, 시행하다, 도구</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>v, n</t>
         </is>
       </c>
     </row>
     <row r="62" ht="17.25" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>immune</t>
+          <t>impose</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>면역의, ~의 영향을 받지 않는</t>
+          <t>시행하다, 도입하다, 부과하다</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="63" ht="17.25" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>imperative</t>
+          <t>impressive</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>반드시 해야 하는, 필수적인</t>
+          <t>굉장한, 인상적인</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1550,131 +1561,131 @@
     <row r="64" ht="17.25" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>implement</t>
+          <t>in advance</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>실행하다, 시행하다, 도구</t>
+          <t>미리, 사전에</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>v, n</t>
+          <t>phr</t>
         </is>
       </c>
     </row>
     <row r="65" ht="17.25" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>impose</t>
+          <t>incorporated</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>시행하다, 도입하다, 부과하다</t>
+          <t>법인 조직의</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="66" ht="17.25" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>impressive</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>굉장한, 인상적인</t>
+          <t>인상, 증가</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="67" ht="17.25" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>in advance</t>
+          <t>increasingly</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>미리, 사전에</t>
+          <t>점점, 더욱더</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>phr</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="68" ht="17.25" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>incorporated</t>
+          <t>independence</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>법인 조직의</t>
+          <t>독립성</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="69" ht="17.25" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>initially</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>인상, 증가</t>
+          <t>처음에, 초기에</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="70" ht="17.25" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>increasingly</t>
+          <t>insane</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>점점, 더욱더</t>
+          <t>제정신이 아닌, 정신 이상의</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="71" ht="17.25" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>independence</t>
+          <t>inspector</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>독립성</t>
+          <t>조사관, 감독관</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1686,63 +1697,63 @@
     <row r="72" ht="17.25" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>initially</t>
+          <t>inspire</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>처음에, 초기에</t>
+          <t>격려하다, 영감을 주다</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="73" ht="17.25" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>insane</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>제정신이 아닌, 정신 이상의</t>
+          <t>설명, 지시</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="74" ht="17.25" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>inspector</t>
+          <t>intend</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>조사관, 감독관</t>
+          <t>~할 작정이다, 의도하다</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="75" ht="17.25" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>inspire</t>
+          <t>interrupt</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>격려하다, 영감을 주다</t>
+          <t>중단시키다, 방해하다</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1754,80 +1765,80 @@
     <row r="76" ht="17.25" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>intervene</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>설명, 지시</t>
+          <t>개입하다, 중재하다</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="77" ht="17.25" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>intend</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>~할 작정이다, 의도하다</t>
+          <t>재고 조사, 재고(품)</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="78" ht="17.25" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>interrupt</t>
+          <t>necklace</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>중단시키다, 방해하다</t>
+          <t>목걸이</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="79" ht="17.25" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>intervene</t>
+          <t>not until</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>개입하다, 중재하다</t>
+          <t>~가 되어야 가능하다</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>phr</t>
         </is>
       </c>
     </row>
     <row r="80" ht="17.25" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>objection</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>재고 조사, 재고(품)</t>
+          <t>반대, 이의</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1839,233 +1850,233 @@
     <row r="81" ht="17.25" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>necklace</t>
+          <t>obtain</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>목걸이</t>
+          <t>획득하다</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="82" ht="17.25" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>not until</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>~가 되어야 가능하다</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>phr</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="83" ht="17.25" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>objection</t>
+          <t>omit</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>반대, 이의</t>
+          <t>빠트리다, 생략하다</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="84" ht="17.25" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>obtain</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>획득하다</t>
+          <t>계속 진행 중인</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="85" ht="17.25" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>operate</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>작동하다, 움직이다</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="86" ht="17.25" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>omit</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>빠트리다, 생략하다</t>
+          <t>기회</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="87" ht="17.25" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>option</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>계속 진행 중인</t>
+          <t>선택</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="88" ht="17.25" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>operate</t>
+          <t>originally</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>작동하다, 움직이다</t>
+          <t>원래, 처음에는</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="89" ht="17.25" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>overcome</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>기회</t>
+          <t>극복하다</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="90" ht="17.25" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>option</t>
+          <t>particularly</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>선택</t>
+          <t>특히</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="91" ht="17.25" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>originally</t>
+          <t>patrol</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>원래, 처음에는</t>
+          <t>순찰하다, 순시하다</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="92" ht="17.25" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>overcome</t>
+          <t>payroll</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>극복하다</t>
+          <t>임금 대장, 급료 명부</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="93" ht="17.25" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>particularly</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>특히</t>
+          <t>실적, 성과</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="94" ht="17.25" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>patrol</t>
+          <t>permit</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>순찰하다, 순시하다</t>
+          <t>허락하다</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2077,63 +2088,63 @@
     <row r="95" ht="17.25" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>payroll</t>
+          <t>pick up</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>임금 대장, 급료 명부</t>
+          <t>집어 들다, 따다, 꺾다</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>phr</t>
         </is>
       </c>
     </row>
     <row r="96" ht="17.25" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>pile</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>실적, 성과</t>
+          <t>쌓다</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v, n</t>
         </is>
       </c>
     </row>
     <row r="97" ht="17.25" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>permit</t>
+          <t>pillow</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>허락하다</t>
+          <t>베개, 쿠션</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="98" ht="17.25" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>pick up</t>
+          <t>put on</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>집어 들다, 따다, 꺾다</t>
+          <t>입다(착용 중인 동작)</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2145,165 +2156,165 @@
     <row r="99" ht="17.25" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>pile</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>쌓다</t>
+          <t>자격이 있는</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>v, n</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="100" ht="17.25" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>pillow</t>
+          <t>reasonable</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>베개, 쿠션</t>
+          <t>합리적인, 적당한</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="101" ht="17.25" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>put on</t>
+          <t>recently</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>입다(착용 중인 동작)</t>
+          <t>최근에</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>phr</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="102" ht="17.25" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>reception</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>자격이 있는</t>
+          <t>환영처, 접수처</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="103" ht="17.25" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>reasonable</t>
+          <t>recruit</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>합리적인, 적당한</t>
+          <t>모집하다</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="104" ht="17.25" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>refuse</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>최근에</t>
+          <t>거절하다</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="105" ht="17.25" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>reception</t>
+          <t>reimburse</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>환영처, 접수처</t>
+          <t>환급하다, 상환하다</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="106" ht="17.25" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>recruit</t>
+          <t>relatively</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>모집하다</t>
+          <t>상대적으로</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>refuse</t>
+          <t>renewable</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>거절하다</t>
+          <t>재생 가능한</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="108" ht="17.25" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>reimburse</t>
+          <t>renovate</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>환급하다, 상환하다</t>
+          <t>개조하다, 수리하다, 보수하다</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2315,63 +2326,63 @@
     <row r="109" ht="17.25" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>relatively</t>
+          <t>reorganize</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>상대적으로</t>
+          <t>재편성하다, 재조직하다</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="110" ht="17.25" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>renewable</t>
+          <t>replace</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>재생 가능한</t>
+          <t>교체하다</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="111" ht="17.25" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>renovate</t>
+          <t>reservation</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>개조하다, 수리하다, 보수하다</t>
+          <t>예약, 지정</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="112" ht="17.25" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>reorganize</t>
+          <t>resign</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>재편성하다, 재조직하다</t>
+          <t>사직하다</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2383,12 +2394,12 @@
     <row r="113" ht="17.25" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>replace</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>교체하다</t>
+          <t>놓다, 놓여 있다, 휴식을 취하다</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2400,29 +2411,29 @@
     <row r="114" ht="17.25" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>reservation</t>
+          <t>retain</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>예약, 지정</t>
+          <t>유지하다, 보유하다</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="115" ht="17.25" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>resign</t>
+          <t>review</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>사직하다</t>
+          <t>검토하다, 재조사하다</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2434,80 +2445,80 @@
     <row r="116" ht="17.25" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>revised</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>놓다, 놓여 있다, 휴식을 취하다</t>
+          <t>수정된, 변경한</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="117" ht="17.25" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>retain</t>
+          <t>revolutionary</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>유지하다, 보유하다</t>
+          <t>혁신적인</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="118" ht="17.25" customHeight="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>square</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>검토하다, 재조사하다</t>
+          <t>정사각형의</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="119" ht="17.25" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>revised</t>
+          <t>stand out</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>수정된, 변경한</t>
+          <t>눈에 띄다, 두드러지다</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>phr</t>
         </is>
       </c>
     </row>
     <row r="120" ht="17.25" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>revolutionary</t>
+          <t>steady</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>혁신적인</t>
+          <t>꾸준한, 안정된</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2519,63 +2530,63 @@
     <row r="121" ht="17.25" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>square</t>
+          <t>step</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>정사각형의</t>
+          <t>서다, 걸음을 떼다</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="122" ht="17.25" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>stand out</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>눈에 띄다, 두드러지다</t>
+          <t>고정 관념, 진부</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>phr</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="123" ht="17.25" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>steady</t>
+          <t>stir</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>꾸준한, 안정된</t>
+          <t>젓다, (저어 가며) 섞다</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="124" ht="17.25" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>store</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>서다, 걸음을 떼다</t>
+          <t>보관하다</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2587,80 +2598,80 @@
     <row r="125" ht="17.25" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>subscribe</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>고정 관념, 진부</t>
+          <t>신청하다, 가입하다, 구독하다</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="126" ht="17.25" customHeight="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>stir</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>젓다, (저어 가며) 섞다</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="127" ht="17.25" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>store</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>보관하다</t>
+          <t>성공적인, 성공한</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>adj</t>
         </is>
       </c>
     </row>
     <row r="128" ht="17.25" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>strap</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>끈</t>
+          <t>제안하다, 권하다</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="129" ht="17.25" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>subscribe</t>
+          <t>summarize</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>신청하다, 가입하다, 구독하다</t>
+          <t>요약하다</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2672,240 +2683,41 @@
     <row r="130" ht="17.25" customHeight="1">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>supervisor</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>상사, 감독관</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="131" ht="17.25" customHeight="1">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>successful</t>
+          <t>wrap</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>성공적인, 성공한</t>
+          <t>포장하다, 싸다, 두르다</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="132" ht="17.25" customHeight="1">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>제안하다, 권하다</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-    </row>
-    <row r="133" ht="17.25" customHeight="1">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>summarize</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>요약하다</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-    </row>
-    <row r="134" ht="17.25" customHeight="1">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>supervisor</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>상사, 감독관</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-    </row>
-    <row r="135" ht="17.25" customHeight="1">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>suppress</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>억제하다, 억누르다, 진압하다</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-    </row>
-    <row r="136" ht="17.25" customHeight="1">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>surface</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>표면</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-    </row>
-    <row r="137" ht="17.25" customHeight="1">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>survey</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>설문조사, 조사하다</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>n, v</t>
-        </is>
-      </c>
-    </row>
-    <row r="138" ht="17.25" customHeight="1">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>suspend</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>중단하다, 유보하다</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-    </row>
-    <row r="139" ht="17.25" customHeight="1">
-      <c r="A139" s="2" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>지속 가능한, 유지할 수 있는</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>adj</t>
-        </is>
-      </c>
-    </row>
-    <row r="140" ht="17.25" customHeight="1">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>sweep</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>(빗자루로) 쓸다, 청소하다</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-    </row>
-    <row r="141" ht="17.25" customHeight="1">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>weigh</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>무게를 재다</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-    </row>
-    <row r="142" ht="17.25" customHeight="1">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>work on</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>~을 작업하다</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>phr</t>
-        </is>
-      </c>
-    </row>
-    <row r="143" ht="17.25" customHeight="1">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>wrap</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>포장하다, 싸다, 두르다</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="inlineStr"/>
+      <c r="B132" s="2" t="inlineStr"/>
+      <c r="C132" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2921,14 +2733,14 @@
   <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="13.86214285714286" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="29.43357142857143" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="6.147857142857143" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="29.3984375" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="6.09765625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -5679,17 +5491,17 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="13.43357142857143" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="24.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="10.71928571428571" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.3984375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="24.59765625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.69921875" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -7579,11 +7391,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="18.75" customHeight="1">
-      <c r="A112" s="5" t="inlineStr"/>
-      <c r="B112" s="5" t="inlineStr"/>
-      <c r="C112" s="5" t="inlineStr"/>
-    </row>
+    <row r="112" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7601,11 +7409,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="14.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="27.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="5.433571428571429" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="14.3984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="27.59765625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="5.3984375" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">

--- a/main/DB/WordList.xlsx
+++ b/main/DB/WordList.xlsx
@@ -3068,7 +3068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3081,6 +3081,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -3393,9 +3396,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="6.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -4828,14 +4831,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
-      <c r="A131" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
+      <c r="A131" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/main/DB/WordList.xlsx
+++ b/main/DB/WordList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="wordsheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,16 +12,16 @@
     <sheet name="wordsheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -39,6 +39,13 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -49,7 +56,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -63,16 +70,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -87,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -101,15 +108,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -188,10 +189,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -229,71 +230,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -321,7 +322,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -344,11 +345,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -357,13 +358,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -373,7 +374,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -382,7 +383,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -391,7 +392,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -399,10 +400,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -475,14 +476,14 @@
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="14.005" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="31.86214285714286" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="6.005" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="31.8984375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="6" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -503,17 +504,17 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>appoint</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>임명하다, 임명</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>v, n</t>
         </is>
@@ -797,7 +798,7 @@
           <t>cluster</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>모여들다, 무리를 이루다</t>
         </is>
@@ -814,7 +815,7 @@
           <t>collaborate</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>협력하다, 공동으로 일하다</t>
         </is>
@@ -2696,17 +2697,17 @@
       </c>
     </row>
     <row r="131" ht="18" customHeight="1">
-      <c r="A131" s="6" t="inlineStr">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>wrap</t>
         </is>
       </c>
-      <c r="B131" s="6" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>포장하다, 싸다, 두르다</t>
         </is>
       </c>
-      <c r="C131" s="6" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
@@ -2729,11 +2730,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="13.86214285714286" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="29.43357142857143" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="6.147857142857143" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="29.3984375" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="6.09765625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -5447,27 +5448,27 @@
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>손짓하다, 흔들다, 파도</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>v, n</t>
         </is>
       </c>
     </row>
     <row r="161" ht="17.25" customHeight="1">
-      <c r="A161" s="2" t="inlineStr">
+      <c r="A161" t="inlineStr">
         <is>
           <t>wear</t>
         </is>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>입다(착용한 상태)</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>v</t>
         </is>
@@ -5490,11 +5491,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="13.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="24.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="10.71928571428571" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.3984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="24.59765625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="10.69921875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -7368,17 +7369,17 @@
       </c>
     </row>
     <row r="111" ht="19.5" customHeight="1">
-      <c r="A111" s="2" t="inlineStr">
+      <c r="A111" t="inlineStr">
         <is>
           <t>utilization</t>
         </is>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>이용, 활용</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>n</t>
         </is>
@@ -7401,11 +7402,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="14.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="27.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="5.433571428571429" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="14.3984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="27.59765625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="5.3984375" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
